--- a/data/trans_camb/P4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P4_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>17,7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,15</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,89</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10,55</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 15,38</t>
+          <t>-20,7; 22,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 21,41</t>
+          <t>-18,84; 28,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 22,52</t>
+          <t>-21,23; 26,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 16,52</t>
+          <t>-16,49; 28,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 24,74</t>
+          <t>-18,43; 19,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 21,06</t>
+          <t>-12,68; 26,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 10,55</t>
+          <t>-10,57; 28,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 18,53</t>
+          <t>-5,89; 37,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 16,67</t>
+          <t>-12,5; 15,17</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; 20,56</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; 23,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 25,72</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>52,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27,75%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31,73%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>56,81%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-61,09; 133,32</t>
+          <t>-74,69; 312,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,19; 190,29</t>
+          <t>-67,18; 317,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,78; 199,64</t>
+          <t>-71,04; 330,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,5; 147,57</t>
+          <t>-55,81; 459,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,64; 181,22</t>
+          <t>-69,82; 274,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 170,1</t>
+          <t>-49,35; 329,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,37; 71,48</t>
+          <t>-42,06; 314,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 129,03</t>
+          <t>-32,1; 434,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,65; 111,78</t>
+          <t>-50,44; 131,22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-36,77; 191,96</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-34,77; 204,87</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-28,64; 203,51</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>-30,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-10,26</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-21,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 27,11</t>
+          <t>-30,44; 32,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 21,32</t>
+          <t>-31,46; 29,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,48; 25,03</t>
+          <t>-30,96; 33,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 19,09</t>
+          <t>-60,34; -5,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 16,88</t>
+          <t>-16,65; 23,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 13,93</t>
+          <t>-15,85; 23,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 18,02</t>
+          <t>-15,7; 24,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 13,71</t>
+          <t>-29,87; 9,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 16,29</t>
+          <t>-16,34; 23,35</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-19,52; 20,76</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-17,98; 25,42</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-40,73; -5,2</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>-3,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>-58,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,42%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>-29,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-47,69%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 107,84</t>
+          <t>-51,3; 103,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 84,58</t>
+          <t>-53,87; 97,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 101,07</t>
+          <t>-51,91; 110,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 75,64</t>
+          <t>-87,72; -13,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,91; 61,87</t>
+          <t>-38,17; 95,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 50,18</t>
+          <t>-36,57; 97,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 58,51</t>
+          <t>-34,68; 99,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 46,06</t>
+          <t>-68,09; 38,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 58,61</t>
+          <t>-34,7; 72,36</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-36,77; 61,82</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-37,05; 79,06</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-75,92; -13,92</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>13,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 6,76</t>
+          <t>-14,23; 11,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 8,91</t>
+          <t>-14,29; 12,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 12,08</t>
+          <t>-11,44; 16,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 9,23</t>
+          <t>-0,9; 29,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 11,09</t>
+          <t>-12,95; 10,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 11,36</t>
+          <t>-11,31; 12,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 5,18</t>
+          <t>-11,28; 12,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 7,43</t>
+          <t>-10,44; 12,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 7,66</t>
+          <t>-9,75; 7,01</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-8,51; 8,02</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 9,75</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 15,73</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-17,66%</t>
+          <t>-12,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,93%</t>
+          <t>-7,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>84,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>-3,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,7%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>-5,76%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>32,36%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,53; 50,21</t>
+          <t>-68,03; 178,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,99; 74,49</t>
+          <t>-68,88; 155,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 99,39</t>
+          <t>-55,4; 207,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 44,14</t>
+          <t>-8,42; 327,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 53,52</t>
+          <t>-44,62; 63,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,09; 55,18</t>
+          <t>-39,41; 71,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,19; 27,01</t>
+          <t>-38,66; 74,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 38,91</t>
+          <t>-38,73; 78,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 40,56</t>
+          <t>-40,31; 47,69</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-35,29; 51,13</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-30,52; 63,98</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-15,08; 102,81</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 9,2</t>
+          <t>-10,44; 13,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 10,13</t>
+          <t>-10,68; 14,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 10,17</t>
+          <t>-10,48; 14,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 10,0</t>
+          <t>-10,64; 13,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 11,11</t>
+          <t>-10,64; 9,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 9,6</t>
+          <t>-10,11; 10,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 7,37</t>
+          <t>-11,07; 9,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 8,43</t>
+          <t>-7,15; 15,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 7,12</t>
+          <t>-7,78; 8,22</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; 8,74</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,97; 8,06</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 11,76</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>-1,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>-2,53%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15,71%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,23; 68,06</t>
+          <t>-43,98; 109,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 73,17</t>
+          <t>-42,35; 117,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 73,01</t>
+          <t>-43,03; 112,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,8; 64,65</t>
+          <t>-46,31; 106,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 70,46</t>
+          <t>-48,01; 78,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 64,59</t>
+          <t>-46,56; 83,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 46,39</t>
+          <t>-50,46; 77,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 51,65</t>
+          <t>-33,07; 120,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-26,81; 45,04</t>
+          <t>-36,23; 58,67</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-34,6; 64,71</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-36,5; 56,34</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-26,68; 85,61</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 13,86</t>
+          <t>-17,76; 18,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 12,8</t>
+          <t>-16,94; 19,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 11,03</t>
+          <t>-18,19; 16,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 11,58</t>
+          <t>-16,83; 19,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 9,09</t>
+          <t>-19,79; 16,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 11,16</t>
+          <t>-18,87; 16,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 7,09</t>
+          <t>-18,9; 17,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 5,34</t>
+          <t>-12,5; 24,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 7,18</t>
+          <t>-12,72; 13,53</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-12,35; 14,96</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-12,13; 13,52</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-9,97; 15,92</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-5,67%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-9,41%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>-3,89%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-12,4%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-5,73%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-4,69%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-11,06%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-8,62%</t>
+          <t>-2,68%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-0,74%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-52,45; 108,27</t>
+          <t>-68,69; 152,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-55,17; 98,15</t>
+          <t>-67,2; 157,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,58; 84,21</t>
+          <t>-68,33; 134,51</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-43,67; 63,25</t>
+          <t>-63,04; 141,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-51,19; 51,68</t>
+          <t>-64,13; 120,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-46,75; 61,79</t>
+          <t>-63,22; 120,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 38,19</t>
+          <t>-61,54; 128,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-44,97; 29,16</t>
+          <t>-41,17; 175,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-42,76; 36,51</t>
+          <t>-49,46; 100,15</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-47,87; 108,4</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-47,61; 89,97</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-39,1; 110,47</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 13,75</t>
+          <t>-9,01; 17,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 9,95</t>
+          <t>-11,65; 12,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 10,6</t>
+          <t>-10,97; 13,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 15,53</t>
+          <t>-13,47; 10,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 16,19</t>
+          <t>-17,36; 19,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 17,12</t>
+          <t>-18,16; 17,74</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 10,91</t>
+          <t>-18,46; 17,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 9,45</t>
+          <t>-17,25; 22,26</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 9,85</t>
+          <t>-10,05; 12,68</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-11,65; 9,88</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-11,51; 10,08</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-11,89; 12,12</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-8,79%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-5,36%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>-16,98%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>-4,56%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>0,03%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>11,46%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-1,71%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-3,11%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 122,02</t>
+          <t>-73,9; 511,57</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-59,04; 91,65</t>
+          <t>-84,37; 456,76</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-56,19; 98,71</t>
+          <t>-83,61; 475,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 111,18</t>
+          <t>-100,0; 431,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 117,51</t>
+          <t>-65,84; 231,16</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-46,05; 119,29</t>
+          <t>-68,37; 205,57</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 73,75</t>
+          <t>-68,9; 198,53</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-39,78; 67,14</t>
+          <t>-74,13; 236,96</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-39,56; 69,19</t>
+          <t>-51,01; 146,78</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-61,87; 117,4</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-61,31; 118,71</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-64,11; 126,53</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
           <t>0,56</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 6,68</t>
+          <t>-9,26; 11,11</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,79</t>
+          <t>-8,78; 10,87</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 8,29</t>
+          <t>-8,58; 12,62</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 5,55</t>
+          <t>-13,07; 4,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 6,39</t>
+          <t>-5,68; 7,23</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,81</t>
+          <t>-4,7; 7,69</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 4,61</t>
+          <t>-4,24; 8,7</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 4,73</t>
+          <t>-4,6; 9,55</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,47</t>
+          <t>-4,89; 7,38</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 7,5</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 8,79</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 5,3</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>-9,68%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-0,12%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 34,48</t>
+          <t>-34,35; 58,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 35,53</t>
+          <t>-32,81; 59,55</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 43,81</t>
+          <t>-31,18; 67,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 24,76</t>
+          <t>-43,09; 25,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 27,77</t>
+          <t>-22,62; 38,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 25,79</t>
+          <t>-19,33; 41,35</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 21,45</t>
+          <t>-18,32; 45,0</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 21,67</t>
+          <t>-18,13; 49,69</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 25,06</t>
+          <t>-19,43; 36,61</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-16,53; 35,96</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-14,55; 44,65</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-21,86; 26,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
